--- a/LookupFiles/countrySpecificVariables.xlsx
+++ b/LookupFiles/countrySpecificVariables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aae\Documents\GitHub\ENERGY\LookupFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD43EAB-650D-4E4B-A992-8EF023DAE49C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD28791-9E53-4021-90D1-AB9CB9D1F2A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{F1847B43-A334-4A7D-A69B-4F79F35D8AF5}"/>
   </bookViews>
@@ -41,20 +41,6 @@
     <t>MZ</t>
   </si>
   <si>
-    <r>
-      <t>http:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>//197.249.5.210:8080/energia/api</t>
-    </r>
-  </si>
-  <si>
     <t>devicePrice</t>
   </si>
   <si>
@@ -172,12 +158,15 @@
   <si>
     <t>Viken energi</t>
   </si>
+  <si>
+    <t>http://41.94.86.4/energia/api</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,12 +177,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF008000"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -231,15 +214,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -558,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A4B543-34CC-4E2A-B04F-4BB55DF5B4D2}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,45 +573,45 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C2">
         <v>3700</v>
@@ -634,39 +620,39 @@
         <v>5000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>2100</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>2100</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L2">
         <v>700</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -675,39 +661,39 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>2100</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3">
         <v>2100</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L3">
         <v>700</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
       </c>
       <c r="C4">
         <v>3700</v>
@@ -716,38 +702,39 @@
         <v>5000</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4">
         <v>2100</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4">
         <v>2100</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L4">
         <v>700</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" tooltip="http://196.192.78.160:81/energy/api/" xr:uid="{F270E12A-E643-48D8-838A-C87F6259D9E2}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{BEE03A63-1EB2-43D0-830E-51D22A68493A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/LookupFiles/countrySpecificVariables.xlsx
+++ b/LookupFiles/countrySpecificVariables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aae\Documents\GitHub\ENERGY\LookupFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Organisasjon\A200\S216\D Betalte oppdrag\Energy\C Methodological development\Questionnaires\QuestionnairesFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD28791-9E53-4021-90D1-AB9CB9D1F2A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10424D82-1F9D-456D-A1E2-27C2350ED5F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{F1847B43-A334-4A7D-A69B-4F79F35D8AF5}"/>
   </bookViews>
@@ -153,13 +153,13 @@
     <t>kullgrillen på terassen</t>
   </si>
   <si>
-    <t>Engangsgrill</t>
-  </si>
-  <si>
     <t>Viken energi</t>
   </si>
   <si>
     <t>http://41.94.86.4/energia/api</t>
+  </si>
+  <si>
+    <t>Bærbar grill</t>
   </si>
 </sst>
 </file>
@@ -229,7 +229,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -545,10 +545,10 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
@@ -611,37 +611,37 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2">
-        <v>3700</v>
+        <v>3300</v>
       </c>
       <c r="D2">
-        <v>5000</v>
+        <v>1100</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F2">
-        <v>2100</v>
+        <v>1100</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J2">
-        <v>2100</v>
+        <v>1100</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M2" t="s">
         <v>18</v>
@@ -655,34 +655,34 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>120000</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>41000</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F3">
-        <v>2100</v>
+        <v>40000</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H3">
-        <v>700</v>
+        <v>22000</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J3">
-        <v>2100</v>
+        <v>40000</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L3">
-        <v>700</v>
+        <v>22000</v>
       </c>
       <c r="M3" t="s">
         <v>20</v>
@@ -696,7 +696,7 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>3700</v>
+        <v>50000</v>
       </c>
       <c r="D4">
         <v>5000</v>
@@ -705,28 +705,28 @@
         <v>24</v>
       </c>
       <c r="F4">
-        <v>2100</v>
+        <v>10000</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H4">
-        <v>700</v>
+        <v>5000</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J4">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4">
+        <v>1000</v>
+      </c>
+      <c r="M4" t="s">
         <v>27</v>
-      </c>
-      <c r="L4">
-        <v>700</v>
-      </c>
-      <c r="M4" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/LookupFiles/countrySpecificVariables.xlsx
+++ b/LookupFiles/countrySpecificVariables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Organisasjon\A200\S216\D Betalte oppdrag\Energy\C Methodological development\Questionnaires\QuestionnairesFinal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssbno-my.sharepoint.com/personal/aae_ssb_no/Documents/Documents/GitHub/ENERGY/LookupFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10424D82-1F9D-456D-A1E2-27C2350ED5F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{F5C91B66-9AD4-4B4C-9AB8-799F351C93FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D702D850-5693-46C8-A14C-4E83B33B2CCC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{F1847B43-A334-4A7D-A69B-4F79F35D8AF5}"/>
+    <workbookView xWindow="2055" yWindow="1770" windowWidth="23940" windowHeight="12525" xr2:uid="{F1847B43-A334-4A7D-A69B-4F79F35D8AF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>country</t>
   </si>
@@ -41,37 +41,19 @@
     <t>MZ</t>
   </si>
   <si>
-    <t>devicePrice</t>
-  </si>
-  <si>
     <t>cookStove1</t>
   </si>
   <si>
     <t>cookStovePrice1</t>
   </si>
   <si>
-    <t>cookStove2</t>
-  </si>
-  <si>
-    <t>cookStovePrice2</t>
-  </si>
-  <si>
     <t>cookStove3</t>
   </si>
   <si>
     <t>cookStovePrice3</t>
   </si>
   <si>
-    <t>cookStove4</t>
-  </si>
-  <si>
-    <t>cookStovePrice4</t>
-  </si>
-  <si>
     <t>elCompany</t>
-  </si>
-  <si>
-    <t>gridPrice</t>
   </si>
   <si>
     <r>
@@ -97,9 +79,6 @@
     </r>
   </si>
   <si>
-    <t>LOCALLY AVAILABLE, popular affordable wood ICS</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">COUNTRY </t>
     </r>
@@ -123,9 +102,6 @@
     </r>
   </si>
   <si>
-    <t>LOCALLY AVAILABLE, popular affordable charcoal ICS</t>
-  </si>
-  <si>
     <t xml:space="preserve">EDM </t>
   </si>
   <si>
@@ -147,9 +123,6 @@
     <t>Gryta hennar mor</t>
   </si>
   <si>
-    <t>vedovnen i hjørnet</t>
-  </si>
-  <si>
     <t>kullgrillen på terassen</t>
   </si>
   <si>
@@ -159,14 +132,26 @@
     <t>http://41.94.86.4/energia/api</t>
   </si>
   <si>
-    <t>Bærbar grill</t>
+    <t>SuperSaver Al Wood</t>
+  </si>
+  <si>
+    <t>Ceramic lined and insulated charcoal oven</t>
+  </si>
+  <si>
+    <t>gridPriceUrb</t>
+  </si>
+  <si>
+    <t>gridPriceRur</t>
+  </si>
+  <si>
+    <t>devicePrice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +179,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <color rgb="FF444444"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FF777777"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF777777"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,7 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -227,9 +229,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -246,7 +263,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -542,192 +559,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A4B543-34CC-4E2A-B04F-4BB55DF5B4D2}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>3300</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1100</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>1100</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>1100</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>272000</v>
+      </c>
+      <c r="D3">
+        <v>27000</v>
+      </c>
+      <c r="E3">
+        <v>41000</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>75000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3">
+        <v>40000</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="F2">
-        <v>1100</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="B4" t="s">
         <v>15</v>
-      </c>
-      <c r="H2">
-        <v>600</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2">
-        <v>1100</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2">
-        <v>600</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>120000</v>
-      </c>
-      <c r="D3">
-        <v>41000</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>40000</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>22000</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3">
-        <v>40000</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3">
-        <v>22000</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
       </c>
       <c r="C4">
         <v>50000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>5000</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4">
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
         <v>10000</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4">
-        <v>5000</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4">
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4">
         <v>3000</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4">
-        <v>1000</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/LookupFiles/countrySpecificVariables.xlsx
+++ b/LookupFiles/countrySpecificVariables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssbno-my.sharepoint.com/personal/aae_ssb_no/Documents/Documents/GitHub/ENERGY/LookupFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\ENERGY\LookupFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{F5C91B66-9AD4-4B4C-9AB8-799F351C93FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D702D850-5693-46C8-A14C-4E83B33B2CCC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426DEEFD-96AC-4D93-A46D-84D0B90DF00B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="1770" windowWidth="23940" windowHeight="12525" xr2:uid="{F1847B43-A334-4A7D-A69B-4F79F35D8AF5}"/>
   </bookViews>
@@ -129,9 +129,6 @@
     <t>Viken energi</t>
   </si>
   <si>
-    <t>http://41.94.86.4/energia/api</t>
-  </si>
-  <si>
     <t>SuperSaver Al Wood</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>devicePrice</t>
+  </si>
+  <si>
+    <t>http://41.94.86.3:8080/Energy/api</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,13 +587,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -616,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>3300</v>
@@ -657,13 +657,13 @@
         <v>41000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3">
         <v>75000</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3">
         <v>40000</v>

--- a/LookupFiles/countrySpecificVariables.xlsx
+++ b/LookupFiles/countrySpecificVariables.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\ENERGY\LookupFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSB\ENERGY\LookupFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426DEEFD-96AC-4D93-A46D-84D0B90DF00B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="1770" windowWidth="23940" windowHeight="12525" xr2:uid="{F1847B43-A334-4A7D-A69B-4F79F35D8AF5}"/>
+    <workbookView xWindow="2060" yWindow="1770" windowWidth="23940" windowHeight="12530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -144,14 +143,14 @@
     <t>devicePrice</t>
   </si>
   <si>
-    <t>http://41.94.86.3:8080/Energy/api</t>
+    <t>http://41.94.86.4:81/energia/api</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,28 +557,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A4B543-34CC-4E2A-B04F-4BB55DF5B4D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="28.5" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -640,7 +639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -672,7 +671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -701,37 +700,37 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="31.5">
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="17.5">
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:6">
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6">
       <c r="F18" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" tooltip="http://196.192.78.160:81/energy/api/" xr:uid="{F270E12A-E643-48D8-838A-C87F6259D9E2}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{BEE03A63-1EB2-43D0-830E-51D22A68493A}"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="http://196.192.78.160:81/energy/api/"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>

--- a/LookupFiles/countrySpecificVariables.xlsx
+++ b/LookupFiles/countrySpecificVariables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="1770" windowWidth="23940" windowHeight="12530"/>
+    <workbookView xWindow="2064" yWindow="1776" windowWidth="23940" windowHeight="12528"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -561,21 +561,21 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" customHeight="1">
@@ -700,10 +700,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="31.5">
+    <row r="10" spans="1:10" ht="31.8">
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="17.5">
+    <row r="11" spans="1:10" ht="17.399999999999999">
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:10">

--- a/LookupFiles/countrySpecificVariables.xlsx
+++ b/LookupFiles/countrySpecificVariables.xlsx
@@ -55,52 +55,6 @@
     <t>elCompany</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">COUNTRY </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">SPECIFIC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Aspirational wood ICS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">COUNTRY </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">SPECIFIC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Aspirational charcoal ICS</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">EDM </t>
   </si>
   <si>
@@ -144,13 +98,19 @@
   </si>
   <si>
     <t>http://41.94.86.4:81/energia/api</t>
+  </si>
+  <si>
+    <t>Chitetezo wood burner</t>
+  </si>
+  <si>
+    <t>Envirofit CH-2200 charcool cookstove</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,12 +121,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -215,29 +169,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -561,7 +515,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
@@ -586,13 +540,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -615,36 +569,39 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>30000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>300</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2">
-        <v>3300</v>
-      </c>
-      <c r="E2">
-        <v>1100</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2">
+        <v>3000</v>
+      </c>
+      <c r="J2" t="s">
         <v>8</v>
-      </c>
-      <c r="G2">
-        <v>1100</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2">
-        <v>1100</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C3">
         <v>272000</v>
@@ -656,27 +613,27 @@
         <v>41000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>75000</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3">
         <v>40000</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>50000</v>
@@ -685,19 +642,19 @@
         <v>5000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>10000</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I4">
         <v>3000</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="31.8">

--- a/LookupFiles/countrySpecificVariables.xlsx
+++ b/LookupFiles/countrySpecificVariables.xlsx
@@ -97,13 +97,13 @@
     <t>devicePrice</t>
   </si>
   <si>
-    <t>http://41.94.86.4:81/energia/api</t>
-  </si>
-  <si>
-    <t>Chitetezo wood burner</t>
-  </si>
-  <si>
-    <t>Envirofit CH-2200 charcool cookstove</t>
+    <t>http://41.94.86.4:81/energy/api</t>
+  </si>
+  <si>
+    <t>Queimador de madeira chitetezo</t>
+  </si>
+  <si>
+    <t>Envirofit CH-2200 fogões a carvão</t>
   </si>
 </sst>
 </file>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>

--- a/LookupFiles/countrySpecificVariables.xlsx
+++ b/LookupFiles/countrySpecificVariables.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSB\ENERGY\LookupFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\ENERGY\LookupFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A284EA0A-7018-43B8-997B-75BAC0CD193F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2064" yWindow="1776" windowWidth="23940" windowHeight="12528"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -97,20 +93,20 @@
     <t>devicePrice</t>
   </si>
   <si>
-    <t>http://41.94.86.4:81/energia/api</t>
-  </si>
-  <si>
     <t>Chitetezo wood burner</t>
   </si>
   <si>
     <t>Envirofit CH-2200 charcool cookstove</t>
+  </si>
+  <si>
+    <t>http://41.94.86.4:81/Energy/api</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,28 +507,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" customHeight="1">
+    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,12 +560,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -581,13 +577,13 @@
         <v>30000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2">
         <v>300</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2">
         <v>3000</v>
@@ -596,7 +592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -628,7 +624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -657,37 +653,37 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="31.8">
+    <row r="10" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="17.399999999999999">
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="6:6">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" tooltip="http://196.192.78.160:81/energy/api/"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="http://196.192.78.160:81/energy/api/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>

--- a/LookupFiles/countrySpecificVariables.xlsx
+++ b/LookupFiles/countrySpecificVariables.xlsx
@@ -515,7 +515,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
